--- a/legislator/property/output/normal/劉櫂豪_2012-04-30_財產申報表_tmpba991.xlsx
+++ b/legislator/property/output/normal/劉櫂豪_2012-04-30_財產申報表_tmpba991.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="117">
   <si>
     <t>土地坐落</t>
   </si>
@@ -170,6 +170,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>中環股份有限公司</t>
   </si>
   <si>
@@ -198,6 +207,9 @@
   </si>
   <si>
     <t>林子煌</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1152,13 +1164,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1177,13 +1189,22 @@
       <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1200,13 +1221,22 @@
       <c r="G2" s="2">
         <v>30000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -1223,13 +1253,22 @@
       <c r="G3" s="2">
         <v>640</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -1246,13 +1285,22 @@
       <c r="G4" s="2">
         <v>880</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1269,13 +1317,22 @@
       <c r="G5" s="2">
         <v>15390</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1292,16 +1349,25 @@
       <c r="G6" s="2">
         <v>18390</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2">
         <v>20</v>
@@ -1315,13 +1381,22 @@
       <c r="G7" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1338,13 +1413,22 @@
       <c r="G8" s="2">
         <v>16660</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1361,13 +1445,22 @@
       <c r="G9" s="2">
         <v>15050</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>42</v>
@@ -1384,13 +1477,22 @@
       <c r="G10" s="2">
         <v>26750</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>42</v>
@@ -1406,6 +1508,15 @@
       </c>
       <c r="G11" s="2">
         <v>9100</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1762</v>
       </c>
     </row>
   </sheetData>
@@ -1423,22 +1534,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>29</v>
@@ -1449,13 +1560,13 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2">
         <v>134.41</v>
@@ -1475,13 +1586,13 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2">
         <v>200.41</v>
@@ -1501,13 +1612,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2">
         <v>325.896</v>
@@ -1527,13 +1638,13 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2">
         <v>88.68</v>
@@ -1553,13 +1664,13 @@
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2">
         <v>501.398</v>
@@ -1579,13 +1690,13 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2">
         <v>425.25</v>
@@ -1594,7 +1705,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H7" s="2">
         <v>525268.8</v>
@@ -1605,13 +1716,13 @@
         <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2">
         <v>214.13</v>
@@ -1620,7 +1731,7 @@
         <v>11.72</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H8" s="2">
         <v>96870.7</v>
@@ -1631,13 +1742,13 @@
         <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2">
         <v>153.517</v>
@@ -1646,7 +1757,7 @@
         <v>21.68</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H9" s="2">
         <v>128470.39</v>
@@ -1657,13 +1768,13 @@
         <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2">
         <v>82.949</v>
@@ -1683,13 +1794,13 @@
         <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2">
         <v>1319.46</v>
@@ -1709,13 +1820,13 @@
         <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E12" s="2">
         <v>89.72</v>
@@ -1735,13 +1846,13 @@
         <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2">
         <v>11.97</v>
@@ -1761,13 +1872,13 @@
         <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E14" s="2">
         <v>33.6</v>
@@ -1797,13 +1908,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1814,16 +1925,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1831,10 +1942,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>41</v>
@@ -1846,10 +1957,10 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>41</v>
@@ -1861,10 +1972,10 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>41</v>
@@ -1876,10 +1987,10 @@
         <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -1891,10 +2002,10 @@
         <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -1906,10 +2017,10 @@
         <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>41</v>
@@ -1921,10 +2032,10 @@
         <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>41</v>
@@ -1936,16 +2047,16 @@
         <v>111</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1953,10 +2064,10 @@
         <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>41</v>
@@ -1968,10 +2079,10 @@
         <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
@@ -1983,10 +2094,10 @@
         <v>114</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -2011,19 +2122,19 @@
         <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2031,22 +2142,22 @@
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2">
         <v>2342159</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/劉櫂豪_2012-04-30_財產申報表_tmpba991.xlsx
+++ b/legislator/property/output/normal/劉櫂豪_2012-04-30_財產申報表_tmpba991.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="119">
   <si>
     <t>土地坐落</t>
   </si>
@@ -170,6 +170,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -182,7 +185,7 @@
     <t>中環股份有限公司</t>
   </si>
   <si>
-    <t>仁寶電腦工業股份有限公 司•</t>
+    <t>仁寶電腦工業股份有限公司•</t>
   </si>
   <si>
     <t>華泰電子股份有限公司</t>
@@ -207,6 +210,9 @@
   </si>
   <si>
     <t>林子煌</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-30</t>
@@ -1164,13 +1170,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1198,13 +1204,16 @@
       <c r="J1" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1222,21 +1231,24 @@
         <v>30000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1762</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -1254,21 +1266,24 @@
         <v>640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1762</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -1286,21 +1301,24 @@
         <v>880</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1762</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1318,21 +1336,24 @@
         <v>15390</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>1762</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1350,24 +1371,27 @@
         <v>18390</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>1762</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2">
         <v>20</v>
@@ -1382,21 +1406,24 @@
         <v>200</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>1762</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1414,21 +1441,24 @@
         <v>16660</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>1762</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1446,21 +1476,24 @@
         <v>15050</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>1762</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>42</v>
@@ -1478,21 +1511,24 @@
         <v>26750</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>1762</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>42</v>
@@ -1510,12 +1546,15 @@
         <v>9100</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>1762</v>
       </c>
     </row>
@@ -1534,22 +1573,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>29</v>
@@ -1560,13 +1599,13 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
         <v>134.41</v>
@@ -1586,13 +1625,13 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2">
         <v>200.41</v>
@@ -1612,13 +1651,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2">
         <v>325.896</v>
@@ -1638,13 +1677,13 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2">
         <v>88.68</v>
@@ -1664,13 +1703,13 @@
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2">
         <v>501.398</v>
@@ -1690,13 +1729,13 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2">
         <v>425.25</v>
@@ -1705,7 +1744,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H7" s="2">
         <v>525268.8</v>
@@ -1716,13 +1755,13 @@
         <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2">
         <v>214.13</v>
@@ -1731,7 +1770,7 @@
         <v>11.72</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H8" s="2">
         <v>96870.7</v>
@@ -1742,13 +1781,13 @@
         <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2">
         <v>153.517</v>
@@ -1757,7 +1796,7 @@
         <v>21.68</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H9" s="2">
         <v>128470.39</v>
@@ -1768,13 +1807,13 @@
         <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2">
         <v>82.949</v>
@@ -1794,13 +1833,13 @@
         <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2">
         <v>1319.46</v>
@@ -1820,13 +1859,13 @@
         <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E12" s="2">
         <v>89.72</v>
@@ -1846,13 +1885,13 @@
         <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E13" s="2">
         <v>11.97</v>
@@ -1872,13 +1911,13 @@
         <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E14" s="2">
         <v>33.6</v>
@@ -1908,13 +1947,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1925,16 +1964,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1942,10 +1981,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>41</v>
@@ -1957,10 +1996,10 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>41</v>
@@ -1972,10 +2011,10 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>41</v>
@@ -1987,10 +2026,10 @@
         <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -2002,10 +2041,10 @@
         <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -2017,10 +2056,10 @@
         <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>41</v>
@@ -2032,10 +2071,10 @@
         <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>41</v>
@@ -2047,16 +2086,16 @@
         <v>111</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2064,10 +2103,10 @@
         <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>41</v>
@@ -2079,10 +2118,10 @@
         <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
@@ -2094,10 +2133,10 @@
         <v>114</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -2122,19 +2161,19 @@
         <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2142,22 +2181,22 @@
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E2" s="2">
         <v>2342159</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/劉櫂豪_2012-04-30_財產申報表_tmpba991.xlsx
+++ b/legislator/property/output/normal/劉櫂豪_2012-04-30_財產申報表_tmpba991.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="124">
   <si>
     <t>土地坐落</t>
   </si>
@@ -173,6 +173,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -182,10 +185,16 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>中環股份有限公司</t>
   </si>
   <si>
-    <t>仁寶電腦工業股份有限公司•</t>
+    <t>仁寶電腦工業股份有限公司</t>
   </si>
   <si>
     <t>華泰電子股份有限公司</t>
@@ -215,7 +224,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmpba991</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1170,13 +1185,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1207,13 +1222,22 @@
       <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1231,24 +1255,33 @@
         <v>30000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1762</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -1266,24 +1299,33 @@
         <v>640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1762</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -1301,24 +1343,33 @@
         <v>880</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1762</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="2">
         <v>63</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1336,24 +1387,33 @@
         <v>15390</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1762</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="2">
         <v>64</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1371,27 +1431,36 @@
         <v>18390</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>1762</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2">
         <v>20</v>
@@ -1406,24 +1475,33 @@
         <v>200</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>1762</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1441,24 +1519,33 @@
         <v>16660</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>1762</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1476,24 +1563,33 @@
         <v>15050</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>1762</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>42</v>
@@ -1511,24 +1607,33 @@
         <v>26750</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>1762</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>42</v>
@@ -1546,16 +1651,25 @@
         <v>9100</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>1762</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="2">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1573,22 +1687,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>29</v>
@@ -1599,13 +1713,13 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>134.41</v>
@@ -1625,13 +1739,13 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2">
         <v>200.41</v>
@@ -1651,13 +1765,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2">
         <v>325.896</v>
@@ -1677,13 +1791,13 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2">
         <v>88.68</v>
@@ -1703,13 +1817,13 @@
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2">
         <v>501.398</v>
@@ -1729,13 +1843,13 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2">
         <v>425.25</v>
@@ -1744,7 +1858,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H7" s="2">
         <v>525268.8</v>
@@ -1755,13 +1869,13 @@
         <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E8" s="2">
         <v>214.13</v>
@@ -1770,7 +1884,7 @@
         <v>11.72</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H8" s="2">
         <v>96870.7</v>
@@ -1781,13 +1895,13 @@
         <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E9" s="2">
         <v>153.517</v>
@@ -1796,7 +1910,7 @@
         <v>21.68</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H9" s="2">
         <v>128470.39</v>
@@ -1807,13 +1921,13 @@
         <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2">
         <v>82.949</v>
@@ -1833,13 +1947,13 @@
         <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2">
         <v>1319.46</v>
@@ -1859,13 +1973,13 @@
         <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E12" s="2">
         <v>89.72</v>
@@ -1885,13 +1999,13 @@
         <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E13" s="2">
         <v>11.97</v>
@@ -1911,13 +2025,13 @@
         <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E14" s="2">
         <v>33.6</v>
@@ -1947,13 +2061,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1964,16 +2078,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1981,10 +2095,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>41</v>
@@ -1996,10 +2110,10 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>41</v>
@@ -2011,10 +2125,10 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>41</v>
@@ -2026,10 +2140,10 @@
         <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -2041,10 +2155,10 @@
         <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -2056,10 +2170,10 @@
         <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>41</v>
@@ -2071,10 +2185,10 @@
         <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>41</v>
@@ -2086,16 +2200,16 @@
         <v>111</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2103,10 +2217,10 @@
         <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>41</v>
@@ -2118,10 +2232,10 @@
         <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
@@ -2133,10 +2247,10 @@
         <v>114</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -2161,19 +2275,19 @@
         <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2181,22 +2295,22 @@
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2">
         <v>2342159</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/劉櫂豪_2012-04-30_財產申報表_tmpba991.xlsx
+++ b/legislator/property/output/normal/劉櫂豪_2012-04-30_財產申報表_tmpba991.xlsx
@@ -21,9 +21,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="124">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="128">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>高雄市鼓山區青海段02140001地號</t>
+  </si>
+  <si>
+    <t>10000分之98</t>
+  </si>
+  <si>
+    <t>林子煊</t>
+  </si>
+  <si>
+    <t>95年08月23日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年取得價額是與房屋車位一併合計6650000)</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>劉櫂豪</t>
+  </si>
+  <si>
+    <t>tmpba991</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,43 +119,22 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>高雄市鼓山區青海段0214-0001 地號</t>
-  </si>
-  <si>
-    <t>10000分之 98</t>
-  </si>
-  <si>
-    <t>林子煊</t>
-  </si>
-  <si>
-    <t>95年08月 23日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年，取 得價額是與房 屋、車位一併 合計 6650000)</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>高雄市鼓山區青海段05404-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市鼓山區青海段05493-000 建號</t>
+    <t>高雄市鼓山區青海段05404000建號</t>
+  </si>
+  <si>
+    <t>高雄市鼓山區青海段05493000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>10000分之 105</t>
-  </si>
-  <si>
-    <t>6，650,000(超 過五年，價額 是與土地、車 位一併計算）</t>
-  </si>
-  <si>
-    <t>(含停車位’編 號14，超過五 年’價額是與 土地'房屋' 車位一併計 算）</t>
+    <t>10000分之105</t>
+  </si>
+  <si>
+    <t>6650000(超過五年價額是與土地車位一併計算）</t>
+  </si>
+  <si>
+    <t>(含停車位編號14超過五年價額是與土地房屋車位一併計算）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -92,10 +146,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>TOYOTA CAMRY2.0</t>
-  </si>
-  <si>
-    <t>96年12月 14日</t>
+    <t>TOYOTACAMRY2.0</t>
+  </si>
+  <si>
+    <t>96年12月14日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -116,19 +170,19 @@
     <t>臺灣銀行台東分行</t>
   </si>
   <si>
-    <t>臺灣新光商業銀行七賢分 行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行三民分 行</t>
-  </si>
-  <si>
-    <t>高雄博愛路郵局(第5 4支 局）</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行鼓山分 行</t>
-  </si>
-  <si>
-    <t>匯臂（台灣）商業銀行高雄 分行</t>
+    <t>臺灣新光商業銀行七賢分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行三民分行</t>
+  </si>
+  <si>
+    <t>高雄博愛路郵局(第54支局）</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行鼓山分行</t>
+  </si>
+  <si>
+    <t>匯臂（台灣）商業銀行高雄分行</t>
   </si>
   <si>
     <t>綜合存款</t>
@@ -146,18 +200,9 @@
     <t>美金</t>
   </si>
   <si>
-    <t>劉櫂豪</t>
-  </si>
-  <si>
     <t>劉〇忻</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -170,27 +215,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>中環股份有限公司</t>
   </si>
   <si>
@@ -224,15 +248,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-30</t>
-  </si>
-  <si>
-    <t>tmpba991</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -251,34 +266,31 @@
     <t>富達太平洋基金</t>
   </si>
   <si>
-    <t>富達新興市場基 金</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓 世界基金</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓' 成長基金</t>
-  </si>
-  <si>
-    <t>貝萊德環球資產 配置基金A2</t>
-  </si>
-  <si>
-    <t>富達歐洲進取基 金</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓 東歐基金</t>
+    <t>富達新興市場基金</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓世界基金</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓成長基金</t>
+  </si>
+  <si>
+    <t>貝萊德環球資產配置基金A2</t>
+  </si>
+  <si>
+    <t>富達歐洲進取基金</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓東歐基金</t>
   </si>
   <si>
     <t>坦伯頓世界基金</t>
   </si>
   <si>
-    <t>富蘭克林坦伯頓 成長基金</t>
-  </si>
-  <si>
-    <t>貝萊德歐洲特別 時機基金</t>
-  </si>
-  <si>
-    <t>聯博新興市場成 長基金</t>
+    <t>貝萊德歐洲特別時機基金</t>
+  </si>
+  <si>
+    <t>聯博新興市場成長基金</t>
   </si>
   <si>
     <t>林子值</t>
@@ -287,13 +299,13 @@
     <t>劉◦忻</t>
   </si>
   <si>
-    <t>中國信託商業 銀行</t>
+    <t>中國信託商業銀行</t>
   </si>
   <si>
     <t>華南商業銀行</t>
   </si>
   <si>
-    <t>國泰世華商業 銀行</t>
+    <t>國泰世華商業銀行</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -305,13 +317,13 @@
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/</t>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>保 險公司</t>
+    <t>保險公司</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -323,7 +335,7 @@
     <t>國際紐約人壽</t>
   </si>
   <si>
-    <t>保 險名稱</t>
+    <t>保險名稱</t>
   </si>
   <si>
     <t>新鍾情終身壽險</t>
@@ -362,7 +374,7 @@
     <t>要保人</t>
   </si>
   <si>
-    <t>備 註</t>
+    <t>備註</t>
   </si>
   <si>
     <t>有兩張保畢</t>
@@ -386,13 +398,13 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>新光商業銀行高雄七賢分行 高雄市新興區七賢一路</t>
-  </si>
-  <si>
-    <t>95年08月 28日</t>
-  </si>
-  <si>
-    <t>購買房屋抵 押貸款</t>
+    <t>新光商業銀行高雄七賢分行高雄市新興區七賢一路</t>
+  </si>
+  <si>
+    <t>95年08月28日</t>
+  </si>
+  <si>
+    <t>購買房屋抵押貸款</t>
   </si>
 </sst>
 </file>
@@ -751,13 +763,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,31 +791,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1945.42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1762</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -821,25 +875,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -847,25 +901,25 @@
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>102.54</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -873,25 +927,25 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2">
         <v>7439.66</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -909,22 +963,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -932,19 +986,19 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2">
         <v>850000</v>
@@ -965,22 +1019,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -988,16 +1042,16 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1009,16 +1063,16 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1030,16 +1084,16 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1051,16 +1105,16 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1072,16 +1126,16 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1093,16 +1147,16 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F7" s="2">
         <v>5387.41</v>
@@ -1116,16 +1170,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1137,16 +1191,16 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F9" s="2">
         <v>1514.09</v>
@@ -1160,16 +1214,16 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2">
         <v>3277.04</v>
@@ -1193,43 +1247,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1237,10 +1291,10 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>3000</v>
@@ -1249,28 +1303,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2">
         <v>30000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2">
         <v>1762</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="N2" s="2">
         <v>61</v>
@@ -1281,10 +1335,10 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
         <v>64</v>
@@ -1293,28 +1347,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2">
         <v>640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2">
         <v>1762</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="N3" s="2">
         <v>62</v>
@@ -1325,10 +1379,10 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
         <v>88</v>
@@ -1337,28 +1391,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2">
         <v>880</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="L4" s="2">
         <v>1762</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="N4" s="2">
         <v>63</v>
@@ -1369,10 +1423,10 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
         <v>1539</v>
@@ -1381,28 +1435,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2">
         <v>15390</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="L5" s="2">
         <v>1762</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="N5" s="2">
         <v>64</v>
@@ -1413,10 +1467,10 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2">
         <v>1839</v>
@@ -1425,28 +1479,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2">
         <v>18390</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="L6" s="2">
         <v>1762</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="N6" s="2">
         <v>65</v>
@@ -1457,10 +1511,10 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2">
         <v>20</v>
@@ -1469,28 +1523,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2">
         <v>200</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="L7" s="2">
         <v>1762</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="N7" s="2">
         <v>66</v>
@@ -1501,10 +1555,10 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
         <v>1666</v>
@@ -1513,28 +1567,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G8" s="2">
         <v>16660</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="L8" s="2">
         <v>1762</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="N8" s="2">
         <v>67</v>
@@ -1545,10 +1599,10 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <v>1505</v>
@@ -1557,28 +1611,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G9" s="2">
         <v>15050</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="L9" s="2">
         <v>1762</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="N9" s="2">
         <v>68</v>
@@ -1589,10 +1643,10 @@
         <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D10" s="2">
         <v>2675</v>
@@ -1601,28 +1655,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G10" s="2">
         <v>26750</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="L10" s="2">
         <v>1762</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="N10" s="2">
         <v>70</v>
@@ -1633,10 +1687,10 @@
         <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2">
         <v>910</v>
@@ -1645,28 +1699,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G11" s="2">
         <v>9100</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="L11" s="2">
         <v>1762</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="N11" s="2">
         <v>71</v>
@@ -1687,25 +1741,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1713,13 +1767,13 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2">
         <v>134.41</v>
@@ -1728,7 +1782,7 @@
         <v>19.82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2">
         <v>77256.18</v>
@@ -1739,13 +1793,13 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2">
         <v>200.41</v>
@@ -1754,7 +1808,7 @@
         <v>20.38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2">
         <v>118446.32</v>
@@ -1765,13 +1819,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2">
         <v>325.896</v>
@@ -1780,7 +1834,7 @@
         <v>14.74</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2">
         <v>139307.5</v>
@@ -1791,13 +1845,13 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2">
         <v>88.68</v>
@@ -1806,7 +1860,7 @@
         <v>20.38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2">
         <v>52411.65</v>
@@ -1817,13 +1871,13 @@
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2">
         <v>501.398</v>
@@ -1832,7 +1886,7 @@
         <v>17.24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2">
         <v>250678.94</v>
@@ -1843,13 +1897,13 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2">
         <v>425.25</v>
@@ -1858,7 +1912,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H7" s="2">
         <v>525268.8</v>
@@ -1869,13 +1923,13 @@
         <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2">
         <v>214.13</v>
@@ -1884,7 +1938,7 @@
         <v>11.72</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H8" s="2">
         <v>96870.7</v>
@@ -1895,13 +1949,13 @@
         <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2">
         <v>153.517</v>
@@ -1910,7 +1964,7 @@
         <v>21.68</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H9" s="2">
         <v>128470.39</v>
@@ -1921,13 +1975,13 @@
         <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E10" s="2">
         <v>82.949</v>
@@ -1936,7 +1990,7 @@
         <v>14.74</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H10" s="2">
         <v>35457.38</v>
@@ -1947,13 +2001,13 @@
         <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2">
         <v>1319.46</v>
@@ -1962,7 +2016,7 @@
         <v>14.74</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H11" s="2">
         <v>564016.37</v>
@@ -1976,10 +2030,10 @@
         <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2">
         <v>89.72</v>
@@ -1988,7 +2042,7 @@
         <v>18.27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H12" s="2">
         <v>47536.35</v>
@@ -1999,13 +2053,13 @@
         <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2">
         <v>11.97</v>
@@ -2014,7 +2068,7 @@
         <v>102.45</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2">
         <v>35563.47</v>
@@ -2025,13 +2079,13 @@
         <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E14" s="2">
         <v>33.6</v>
@@ -2040,7 +2094,7 @@
         <v>35.55</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H14" s="2">
         <v>34639.92</v>
@@ -2061,16 +2115,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2078,16 +2132,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2095,13 +2149,13 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -2110,13 +2164,13 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -2125,13 +2179,13 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -2140,13 +2194,13 @@
         <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -2155,13 +2209,13 @@
         <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -2170,13 +2224,13 @@
         <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2185,13 +2239,13 @@
         <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2200,16 +2254,16 @@
         <v>111</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2217,13 +2271,13 @@
         <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -2232,13 +2286,13 @@
         <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -2247,13 +2301,13 @@
         <v>114</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -2272,22 +2326,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2295,22 +2349,22 @@
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E2" s="2">
         <v>2342159</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/劉櫂豪_2012-04-30_財產申報表_tmpba991.xlsx
+++ b/legislator/property/output/normal/劉櫂豪_2012-04-30_財產申報表_tmpba991.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="96">
   <si>
     <t>name</t>
   </si>
@@ -65,10 +65,16 @@
     <t>index</t>
   </si>
   <si>
-    <t>高雄市鼓山區青海段02140001地號</t>
-  </si>
-  <si>
-    <t>10000分之98</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>高雄市鼓山區青海段05404000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>林子煊</t>
@@ -80,10 +86,100 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>(超過五年取得價額是與房屋車位一併合計6650000)</t>
-  </si>
-  <si>
-    <t>land</t>
+    <t>6650000(超過五年價額是與土地車位一併計算）</t>
+  </si>
+  <si>
+    <t>高雄市鼓山區青海段05493000建號</t>
+  </si>
+  <si>
+    <t>10000分之105</t>
+  </si>
+  <si>
+    <t>(含停車位編號14超過五年價額是與土地房屋車位一併計算）</t>
+  </si>
+  <si>
+    <t>TOYOTACAMRY2.0</t>
+  </si>
+  <si>
+    <t>96年12月14日</t>
+  </si>
+  <si>
+    <t>臺灣銀行台東分行</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>劉櫂豪</t>
+  </si>
+  <si>
+    <t>臺灣新光商業銀行七賢分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行三民分行</t>
+  </si>
+  <si>
+    <t>高雄博愛路郵局(第54支局）</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行鼓山分行</t>
+  </si>
+  <si>
+    <t>匯臂（台灣）商業銀行高雄分行</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>定期儲蓄存款</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>劉〇忻</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>仁寶電腦工業股份有限公司</t>
+  </si>
+  <si>
+    <t>華泰電子股份有限公司</t>
+  </si>
+  <si>
+    <t>旺宏電子股份有限公司</t>
+  </si>
+  <si>
+    <t>瀚宇彩晶股份有限公司</t>
+  </si>
+  <si>
+    <t>聯華電子股份有限公司</t>
+  </si>
+  <si>
+    <t>微星科技股份有限公司</t>
+  </si>
+  <si>
+    <t>浩鑫股份有限公司</t>
+  </si>
+  <si>
+    <t>訊連科技股份有限公司</t>
+  </si>
+  <si>
+    <t>林子煌</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>normal</t>
@@ -92,180 +188,15 @@
     <t>2012-04-30</t>
   </si>
   <si>
-    <t>劉櫂豪</t>
-  </si>
-  <si>
     <t>tmpba991</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>高雄市鼓山區青海段05404000建號</t>
-  </si>
-  <si>
-    <t>高雄市鼓山區青海段05493000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之105</t>
-  </si>
-  <si>
-    <t>6650000(超過五年價額是與土地車位一併計算）</t>
-  </si>
-  <si>
-    <t>(含停車位編號14超過五年價額是與土地房屋車位一併計算）</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>TOYOTACAMRY2.0</t>
-  </si>
-  <si>
-    <t>96年12月14日</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>臺灣銀行台東分行</t>
-  </si>
-  <si>
-    <t>臺灣新光商業銀行七賢分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行三民分行</t>
-  </si>
-  <si>
-    <t>高雄博愛路郵局(第54支局）</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行鼓山分行</t>
-  </si>
-  <si>
-    <t>匯臂（台灣）商業銀行高雄分行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>定期儲蓄存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>劉〇忻</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>中環股份有限公司</t>
-  </si>
-  <si>
-    <t>仁寶電腦工業股份有限公司</t>
-  </si>
-  <si>
-    <t>華泰電子股份有限公司</t>
-  </si>
-  <si>
-    <t>旺宏電子股份有限公司</t>
-  </si>
-  <si>
-    <t>瀚宇彩晶股份有限公司</t>
-  </si>
-  <si>
-    <t>聯華電子股份有限公司</t>
-  </si>
-  <si>
-    <t>微星科技股份有限公司</t>
-  </si>
-  <si>
-    <t>浩鑫股份有限公司</t>
-  </si>
-  <si>
-    <t>訊連科技股份有限公司</t>
-  </si>
-  <si>
-    <t>林子煌</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>富達太平洋基金</t>
   </si>
   <si>
+    <t>中國信託商業銀行</t>
+  </si>
+  <si>
     <t>富達新興市場基金</t>
   </si>
   <si>
@@ -299,9 +230,6 @@
     <t>劉◦忻</t>
   </si>
   <si>
-    <t>中國信託商業銀行</t>
-  </si>
-  <si>
     <t>華南商業銀行</t>
   </si>
   <si>
@@ -314,18 +242,18 @@
     <t>歐元</t>
   </si>
   <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
+    <t>保險名稱</t>
+  </si>
+  <si>
+    <t>要保人</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
@@ -335,9 +263,6 @@
     <t>國際紐約人壽</t>
   </si>
   <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
     <t>新鍾情終身壽險</t>
   </si>
   <si>
@@ -371,28 +296,7 @@
     <t>增美利外幣終身壽險</t>
   </si>
   <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>有兩張保畢</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -763,13 +667,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,52 +716,11 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2">
-        <v>1945.42</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1762</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="2">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +730,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -875,77 +738,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="C1" s="1">
+        <v>102.54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2">
-        <v>102.54</v>
+        <v>7439.66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2">
-        <v>7439.66</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +792,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1998</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1">
+        <v>850000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -963,272 +833,193 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>1080379</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1998</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2">
-        <v>850000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>46</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>1080379</v>
+        <v>76759</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>76759</v>
+        <v>34561</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>34561</v>
+        <v>272988</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>272988</v>
+        <v>218778</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5387.41</v>
+      </c>
       <c r="G6" s="2">
-        <v>218778</v>
+        <v>156234.89</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5387.41</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>156234.89</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1514.09</v>
+      </c>
       <c r="G8" s="2">
-        <v>500000</v>
+        <v>43908.61</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2">
-        <v>1514.09</v>
+        <v>3277.04</v>
       </c>
       <c r="G9" s="2">
-        <v>43908.61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>54</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3277.04</v>
-      </c>
-      <c r="G10" s="2">
         <v>95034.16</v>
       </c>
     </row>
@@ -1239,7 +1030,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1253,16 +1044,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1288,441 +1079,397 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2">
         <v>64</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2">
-        <v>30000</v>
+        <v>640</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2">
         <v>1762</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="N2" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2">
-        <v>640</v>
+        <v>880</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2">
         <v>1762</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="N3" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>88</v>
+        <v>1539</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2">
-        <v>880</v>
+        <v>15390</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2">
         <v>1762</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="N4" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>1539</v>
+        <v>1839</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2">
-        <v>15390</v>
+        <v>18390</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2">
         <v>1762</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="N5" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2">
-        <v>1839</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2">
-        <v>18390</v>
+        <v>200</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="2">
         <v>1762</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="N6" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
-        <v>20</v>
+        <v>1666</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2">
-        <v>200</v>
+        <v>16660</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L7" s="2">
         <v>1762</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="N7" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>1666</v>
+        <v>1505</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2">
-        <v>16660</v>
+        <v>15050</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L8" s="2">
         <v>1762</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="N8" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2">
-        <v>1505</v>
+        <v>2675</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G9" s="2">
-        <v>15050</v>
+        <v>26750</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="2">
         <v>1762</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="N9" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2">
-        <v>2675</v>
+        <v>910</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2">
-        <v>26750</v>
+        <v>9100</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L10" s="2">
         <v>1762</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="N10" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1">
-        <v>71</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="2">
-        <v>910</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="2">
-        <v>9100</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1762</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="2">
         <v>71</v>
       </c>
     </row>
@@ -1733,7 +1480,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1741,362 +1488,336 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="E1" s="1">
+        <v>134.41</v>
+      </c>
+      <c r="F1" s="1">
+        <v>19.82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
+      </c>
+      <c r="H1" s="1">
+        <v>77256.18</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2">
-        <v>134.41</v>
+        <v>200.41</v>
       </c>
       <c r="F2" s="2">
-        <v>19.82</v>
+        <v>20.38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2">
-        <v>77256.18</v>
+        <v>118446.32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2">
-        <v>200.41</v>
+        <v>325.896</v>
       </c>
       <c r="F3" s="2">
-        <v>20.38</v>
+        <v>14.74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2">
-        <v>118446.32</v>
+        <v>139307.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2">
-        <v>325.896</v>
+        <v>88.68</v>
       </c>
       <c r="F4" s="2">
-        <v>14.74</v>
+        <v>20.38</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2">
-        <v>139307.5</v>
+        <v>52411.65</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2">
-        <v>88.68</v>
+        <v>501.398</v>
       </c>
       <c r="F5" s="2">
-        <v>20.38</v>
+        <v>17.24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2">
-        <v>52411.65</v>
+        <v>250678.94</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2">
-        <v>501.398</v>
+        <v>425.25</v>
       </c>
       <c r="F6" s="2">
-        <v>17.24</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H6" s="2">
-        <v>250678.94</v>
+        <v>525268.8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2">
-        <v>425.25</v>
+        <v>214.13</v>
       </c>
       <c r="F7" s="2">
-        <v>32</v>
+        <v>11.72</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="H7" s="2">
-        <v>525268.8</v>
+        <v>96870.7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2">
-        <v>214.13</v>
+        <v>153.517</v>
       </c>
       <c r="F8" s="2">
-        <v>11.72</v>
+        <v>21.68</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="H8" s="2">
-        <v>96870.7</v>
+        <v>128470.39</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2">
-        <v>153.517</v>
+        <v>82.949</v>
       </c>
       <c r="F9" s="2">
-        <v>21.68</v>
+        <v>14.74</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="H9" s="2">
-        <v>128470.39</v>
+        <v>35457.38</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2">
-        <v>82.949</v>
+        <v>1319.46</v>
       </c>
       <c r="F10" s="2">
         <v>14.74</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2">
-        <v>35457.38</v>
+        <v>564016.37</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="E11" s="2">
-        <v>1319.46</v>
+        <v>89.72</v>
       </c>
       <c r="F11" s="2">
-        <v>14.74</v>
+        <v>18.27</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H11" s="2">
-        <v>564016.37</v>
+        <v>47536.35</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2">
-        <v>89.72</v>
+        <v>11.97</v>
       </c>
       <c r="F12" s="2">
-        <v>18.27</v>
+        <v>102.45</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H12" s="2">
-        <v>47536.35</v>
+        <v>35563.47</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2">
-        <v>11.97</v>
+        <v>33.6</v>
       </c>
       <c r="F13" s="2">
-        <v>102.45</v>
+        <v>35.55</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H13" s="2">
-        <v>35563.47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>93</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="2">
-        <v>33.6</v>
-      </c>
-      <c r="F14" s="2">
-        <v>35.55</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="2">
         <v>34639.92</v>
       </c>
     </row>
@@ -2107,7 +1828,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2115,201 +1836,184 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>117</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>114</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2318,53 +2022,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>93</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2342159</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>124</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2342159</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/劉櫂豪_2012-04-30_財產申報表_tmpba991.xlsx
+++ b/legislator/property/output/normal/劉櫂豪_2012-04-30_財產申報表_tmpba991.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -71,30 +71,54 @@
     <t>total</t>
   </si>
   <si>
+    <t>高雄市鼓山區青海段02140001地號</t>
+  </si>
+  <si>
+    <t>10000分之98</t>
+  </si>
+  <si>
+    <t>林子煊</t>
+  </si>
+  <si>
+    <t>95年08月23日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年取得價額是與房屋車位一併合計6650000)</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>劉櫂豪</t>
+  </si>
+  <si>
+    <t>tmpba991</t>
+  </si>
+  <si>
     <t>高雄市鼓山區青海段05404000建號</t>
   </si>
   <si>
+    <t>高雄市鼓山區青海段05493000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>林子煊</t>
-  </si>
-  <si>
-    <t>95年08月23日</t>
-  </si>
-  <si>
-    <t>買賣</t>
+    <t>10000分之105</t>
   </si>
   <si>
     <t>6650000(超過五年價額是與土地車位一併計算）</t>
   </si>
   <si>
-    <t>高雄市鼓山區青海段05493000建號</t>
-  </si>
-  <si>
-    <t>10000分之105</t>
-  </si>
-  <si>
     <t>(含停車位編號14超過五年價額是與土地房屋車位一併計算）</t>
   </si>
   <si>
@@ -113,9 +137,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>劉櫂豪</t>
-  </si>
-  <si>
     <t>臺灣新光商業銀行七賢分行</t>
   </si>
   <si>
@@ -152,6 +173,9 @@
     <t>currency</t>
   </si>
   <si>
+    <t>中環股份有限公司</t>
+  </si>
+  <si>
     <t>仁寶電腦工業股份有限公司</t>
   </si>
   <si>
@@ -180,15 +204,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-30</t>
-  </si>
-  <si>
-    <t>tmpba991</t>
   </si>
   <si>
     <t>富達太平洋基金</t>
@@ -667,13 +682,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,6 +736,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1945.42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1762</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0098</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>19.065116</v>
       </c>
     </row>
   </sheetData>
@@ -730,47 +798,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2">
         <v>102.54</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2">
-        <v>7439.66</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -782,7 +877,87 @@
         <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1762</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
+        <v>18</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>102.54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7439.66</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1762</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2">
+        <v>19</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0105</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>78.11643</v>
       </c>
     </row>
   </sheetData>
@@ -792,15 +967,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1">
         <v>1998</v>
@@ -809,12 +984,35 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="1">
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1998</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2">
         <v>850000</v>
       </c>
     </row>
@@ -825,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -833,16 +1031,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -851,175 +1049,196 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>76759</v>
+        <v>1080379</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>34561</v>
+        <v>76759</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>272988</v>
+        <v>34561</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>218778</v>
+        <v>272988</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5387.41</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>156234.89</v>
+        <v>218778</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5387.41</v>
+      </c>
       <c r="G7" s="2">
-        <v>500000</v>
+        <v>156234.89</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1514.09</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>43908.61</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1514.09</v>
+      </c>
+      <c r="G9" s="2">
+        <v>43908.61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>54</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2">
         <v>3277.04</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10" s="2">
         <v>95034.16</v>
       </c>
     </row>
@@ -1030,7 +1249,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1044,13 +1263,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1079,397 +1298,441 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>64</v>
+        <v>3000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
-        <v>640</v>
+        <v>30000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2">
         <v>1762</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="N2" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2">
-        <v>880</v>
+        <v>640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2">
         <v>1762</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="N3" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>1539</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2">
-        <v>15390</v>
+        <v>880</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2">
         <v>1762</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="N4" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>1839</v>
+        <v>1539</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2">
-        <v>18390</v>
+        <v>15390</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L5" s="2">
         <v>1762</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="N5" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
-        <v>20</v>
+        <v>1839</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2">
-        <v>200</v>
+        <v>18390</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L6" s="2">
         <v>1762</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="N6" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2">
-        <v>1666</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2">
-        <v>16660</v>
+        <v>200</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L7" s="2">
         <v>1762</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="N7" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>1505</v>
+        <v>1666</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2">
-        <v>15050</v>
+        <v>16660</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L8" s="2">
         <v>1762</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="N8" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>2675</v>
+        <v>1505</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2">
-        <v>26750</v>
+        <v>15050</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L9" s="2">
         <v>1762</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="N9" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2">
-        <v>910</v>
+        <v>2675</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2">
-        <v>9100</v>
+        <v>26750</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L10" s="2">
         <v>1762</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="N10" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>71</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2">
+        <v>910</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="2">
+        <v>9100</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1762</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="2">
         <v>71</v>
       </c>
     </row>
@@ -1480,7 +1743,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1488,13 +1751,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1">
         <v>134.41</v>
@@ -1503,7 +1766,7 @@
         <v>19.82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1">
         <v>77256.18</v>
@@ -1511,313 +1774,339 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2">
-        <v>200.41</v>
+        <v>134.41</v>
       </c>
       <c r="F2" s="2">
-        <v>20.38</v>
+        <v>19.82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2">
-        <v>118446.32</v>
+        <v>77256.18</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2">
-        <v>325.896</v>
+        <v>200.41</v>
       </c>
       <c r="F3" s="2">
-        <v>14.74</v>
+        <v>20.38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2">
-        <v>139307.5</v>
+        <v>118446.32</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2">
-        <v>88.68</v>
+        <v>325.896</v>
       </c>
       <c r="F4" s="2">
-        <v>20.38</v>
+        <v>14.74</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2">
-        <v>52411.65</v>
+        <v>139307.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2">
-        <v>501.398</v>
+        <v>88.68</v>
       </c>
       <c r="F5" s="2">
-        <v>17.24</v>
+        <v>20.38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H5" s="2">
-        <v>250678.94</v>
+        <v>52411.65</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2">
-        <v>425.25</v>
+        <v>501.398</v>
       </c>
       <c r="F6" s="2">
-        <v>32</v>
+        <v>17.24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2">
-        <v>525268.8</v>
+        <v>250678.94</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2">
-        <v>214.13</v>
+        <v>425.25</v>
       </c>
       <c r="F7" s="2">
-        <v>11.72</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H7" s="2">
-        <v>96870.7</v>
+        <v>525268.8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2">
-        <v>153.517</v>
+        <v>214.13</v>
       </c>
       <c r="F8" s="2">
-        <v>21.68</v>
+        <v>11.72</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H8" s="2">
-        <v>128470.39</v>
+        <v>96870.7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2">
-        <v>82.949</v>
+        <v>153.517</v>
       </c>
       <c r="F9" s="2">
-        <v>14.74</v>
+        <v>21.68</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H9" s="2">
-        <v>35457.38</v>
+        <v>128470.39</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2">
-        <v>1319.46</v>
+        <v>82.949</v>
       </c>
       <c r="F10" s="2">
         <v>14.74</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H10" s="2">
-        <v>564016.37</v>
+        <v>35457.38</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2">
-        <v>89.72</v>
+        <v>1319.46</v>
       </c>
       <c r="F11" s="2">
-        <v>18.27</v>
+        <v>14.74</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H11" s="2">
-        <v>47536.35</v>
+        <v>564016.37</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2">
-        <v>11.97</v>
+        <v>89.72</v>
       </c>
       <c r="F12" s="2">
-        <v>102.45</v>
+        <v>18.27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H12" s="2">
-        <v>35563.47</v>
+        <v>47536.35</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
+        <v>92</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2">
+        <v>11.97</v>
+      </c>
+      <c r="F13" s="2">
+        <v>102.45</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="2">
+        <v>35563.47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
         <v>93</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="2">
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2">
         <v>33.6</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
         <v>35.55</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="G14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="2">
         <v>34639.92</v>
       </c>
     </row>
@@ -1828,7 +2117,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1836,87 +2125,89 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -1925,95 +2216,110 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
+        <v>113</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
         <v>114</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2022,30 +2328,53 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1">
         <v>2342159</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>124</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2342159</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/劉櫂豪_2012-04-30_財產申報表_tmpba991.xlsx
+++ b/legislator/property/output/normal/劉櫂豪_2012-04-30_財產申報表_tmpba991.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>(含停車位編號14超過五年價額是與土地房屋車位一併計算）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>TOYOTACAMRY2.0</t>
@@ -967,38 +970,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1">
-        <v>1998</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1">
-        <v>850000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1007,13 +1031,34 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2">
         <v>850000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1762</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1031,13 +1076,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
@@ -1052,13 +1097,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -1073,13 +1118,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1094,13 +1139,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -1115,13 +1160,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1136,16 +1181,16 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1157,16 +1202,16 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2">
         <v>5387.41</v>
@@ -1180,16 +1225,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1201,16 +1246,16 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2">
         <v>1514.09</v>
@@ -1224,13 +1269,13 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
@@ -1263,13 +1308,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1301,7 +1346,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1313,13 +1358,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2">
         <v>30000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1345,7 +1390,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1357,13 +1402,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2">
         <v>640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1389,7 +1434,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1401,13 +1446,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2">
         <v>880</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1433,7 +1478,7 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1445,13 +1490,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2">
         <v>15390</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
@@ -1477,7 +1522,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1489,13 +1534,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2">
         <v>18390</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
@@ -1521,10 +1566,10 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2">
         <v>20</v>
@@ -1533,13 +1578,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2">
         <v>200</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>23</v>
@@ -1565,7 +1610,7 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -1577,13 +1622,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2">
         <v>16660</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
@@ -1609,7 +1654,7 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -1621,13 +1666,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2">
         <v>15050</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>23</v>
@@ -1653,10 +1698,10 @@
         <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2">
         <v>2675</v>
@@ -1665,13 +1710,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2">
         <v>26750</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>23</v>
@@ -1697,10 +1742,10 @@
         <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2">
         <v>910</v>
@@ -1709,13 +1754,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2">
         <v>9100</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>23</v>
@@ -1751,13 +1796,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1">
         <v>134.41</v>
@@ -1766,7 +1811,7 @@
         <v>19.82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1">
         <v>77256.18</v>
@@ -1777,13 +1822,13 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2">
         <v>134.41</v>
@@ -1792,7 +1837,7 @@
         <v>19.82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2">
         <v>77256.18</v>
@@ -1803,13 +1848,13 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E3" s="2">
         <v>200.41</v>
@@ -1818,7 +1863,7 @@
         <v>20.38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2">
         <v>118446.32</v>
@@ -1829,13 +1874,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2">
         <v>325.896</v>
@@ -1844,7 +1889,7 @@
         <v>14.74</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2">
         <v>139307.5</v>
@@ -1855,13 +1900,13 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2">
         <v>88.68</v>
@@ -1870,7 +1915,7 @@
         <v>20.38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2">
         <v>52411.65</v>
@@ -1881,13 +1926,13 @@
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2">
         <v>501.398</v>
@@ -1896,7 +1941,7 @@
         <v>17.24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2">
         <v>250678.94</v>
@@ -1907,13 +1952,13 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2">
         <v>425.25</v>
@@ -1922,7 +1967,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" s="2">
         <v>525268.8</v>
@@ -1933,13 +1978,13 @@
         <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2">
         <v>214.13</v>
@@ -1948,7 +1993,7 @@
         <v>11.72</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" s="2">
         <v>96870.7</v>
@@ -1959,13 +2004,13 @@
         <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2">
         <v>153.517</v>
@@ -1974,7 +2019,7 @@
         <v>21.68</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" s="2">
         <v>128470.39</v>
@@ -1985,13 +2030,13 @@
         <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2">
         <v>82.949</v>
@@ -2000,7 +2045,7 @@
         <v>14.74</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2">
         <v>35457.38</v>
@@ -2011,13 +2056,13 @@
         <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2">
         <v>1319.46</v>
@@ -2026,7 +2071,7 @@
         <v>14.74</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2">
         <v>564016.37</v>
@@ -2037,13 +2082,13 @@
         <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2">
         <v>89.72</v>
@@ -2052,7 +2097,7 @@
         <v>18.27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" s="2">
         <v>47536.35</v>
@@ -2063,13 +2108,13 @@
         <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2">
         <v>11.97</v>
@@ -2078,7 +2123,7 @@
         <v>102.45</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2">
         <v>35563.47</v>
@@ -2089,13 +2134,13 @@
         <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2">
         <v>33.6</v>
@@ -2104,7 +2149,7 @@
         <v>35.55</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" s="2">
         <v>34639.92</v>
@@ -2125,16 +2170,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2142,16 +2187,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2159,10 +2204,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -2174,10 +2219,10 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
@@ -2189,10 +2234,10 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
@@ -2204,10 +2249,10 @@
         <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -2219,10 +2264,10 @@
         <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -2234,10 +2279,10 @@
         <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
@@ -2249,10 +2294,10 @@
         <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
@@ -2264,16 +2309,16 @@
         <v>111</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2281,10 +2326,10 @@
         <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>25</v>
@@ -2296,10 +2341,10 @@
         <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
@@ -2311,10 +2356,10 @@
         <v>114</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
@@ -2336,22 +2381,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1">
         <v>2342159</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2359,22 +2404,22 @@
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2">
         <v>2342159</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/劉櫂豪_2012-04-30_財產申報表_tmpba991.xlsx
+++ b/legislator/property/output/normal/劉櫂豪_2012-04-30_財產申報表_tmpba991.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="104">
   <si>
     <t>name</t>
   </si>
@@ -122,6 +122,9 @@
     <t>(含停車位編號14超過五年價額是與土地房屋車位一併計算）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -129,6 +132,9 @@
   </si>
   <si>
     <t>96年12月14日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行台東分行</t>
@@ -883,7 +889,7 @@
         <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -936,7 +942,7 @@
         <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>23</v>
@@ -981,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1022,7 +1028,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1031,7 +1037,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -1040,7 +1046,7 @@
         <v>850000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1076,13 +1082,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
@@ -1097,13 +1103,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -1118,13 +1124,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1139,13 +1145,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -1160,13 +1166,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1181,16 +1187,16 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1202,16 +1208,16 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2">
         <v>5387.41</v>
@@ -1225,16 +1231,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1246,16 +1252,16 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F9" s="2">
         <v>1514.09</v>
@@ -1269,13 +1275,13 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
@@ -1308,13 +1314,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1346,7 +1352,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1358,13 +1364,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>30000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1390,7 +1396,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1402,13 +1408,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2">
         <v>640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1434,7 +1440,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1446,13 +1452,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2">
         <v>880</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1478,7 +1484,7 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1490,13 +1496,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2">
         <v>15390</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
@@ -1522,7 +1528,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1534,13 +1540,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2">
         <v>18390</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
@@ -1566,10 +1572,10 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2">
         <v>20</v>
@@ -1578,13 +1584,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2">
         <v>200</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>23</v>
@@ -1610,7 +1616,7 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -1622,13 +1628,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2">
         <v>16660</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
@@ -1654,7 +1660,7 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -1666,13 +1672,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2">
         <v>15050</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>23</v>
@@ -1698,10 +1704,10 @@
         <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2">
         <v>2675</v>
@@ -1710,13 +1716,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2">
         <v>26750</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>23</v>
@@ -1742,10 +1748,10 @@
         <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2">
         <v>910</v>
@@ -1754,13 +1760,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2">
         <v>9100</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>23</v>
@@ -1796,13 +1802,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1">
         <v>134.41</v>
@@ -1811,7 +1817,7 @@
         <v>19.82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1">
         <v>77256.18</v>
@@ -1822,13 +1828,13 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2">
         <v>134.41</v>
@@ -1837,7 +1843,7 @@
         <v>19.82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2">
         <v>77256.18</v>
@@ -1848,13 +1854,13 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2">
         <v>200.41</v>
@@ -1863,7 +1869,7 @@
         <v>20.38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2">
         <v>118446.32</v>
@@ -1874,13 +1880,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E4" s="2">
         <v>325.896</v>
@@ -1889,7 +1895,7 @@
         <v>14.74</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2">
         <v>139307.5</v>
@@ -1900,13 +1906,13 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2">
         <v>88.68</v>
@@ -1915,7 +1921,7 @@
         <v>20.38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H5" s="2">
         <v>52411.65</v>
@@ -1926,13 +1932,13 @@
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2">
         <v>501.398</v>
@@ -1941,7 +1947,7 @@
         <v>17.24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H6" s="2">
         <v>250678.94</v>
@@ -1952,13 +1958,13 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2">
         <v>425.25</v>
@@ -1967,7 +1973,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H7" s="2">
         <v>525268.8</v>
@@ -1978,13 +1984,13 @@
         <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2">
         <v>214.13</v>
@@ -1993,7 +1999,7 @@
         <v>11.72</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H8" s="2">
         <v>96870.7</v>
@@ -2004,13 +2010,13 @@
         <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2">
         <v>153.517</v>
@@ -2019,7 +2025,7 @@
         <v>21.68</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H9" s="2">
         <v>128470.39</v>
@@ -2030,13 +2036,13 @@
         <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2">
         <v>82.949</v>
@@ -2045,7 +2051,7 @@
         <v>14.74</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H10" s="2">
         <v>35457.38</v>
@@ -2056,13 +2062,13 @@
         <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2">
         <v>1319.46</v>
@@ -2071,7 +2077,7 @@
         <v>14.74</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H11" s="2">
         <v>564016.37</v>
@@ -2082,13 +2088,13 @@
         <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2">
         <v>89.72</v>
@@ -2097,7 +2103,7 @@
         <v>18.27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H12" s="2">
         <v>47536.35</v>
@@ -2108,13 +2114,13 @@
         <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2">
         <v>11.97</v>
@@ -2123,7 +2129,7 @@
         <v>102.45</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H13" s="2">
         <v>35563.47</v>
@@ -2134,13 +2140,13 @@
         <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2">
         <v>33.6</v>
@@ -2149,7 +2155,7 @@
         <v>35.55</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H14" s="2">
         <v>34639.92</v>
@@ -2170,16 +2176,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2187,16 +2193,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2204,10 +2210,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -2219,10 +2225,10 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
@@ -2234,10 +2240,10 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
@@ -2249,10 +2255,10 @@
         <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -2264,10 +2270,10 @@
         <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -2279,10 +2285,10 @@
         <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
@@ -2294,10 +2300,10 @@
         <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
@@ -2309,16 +2315,16 @@
         <v>111</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2326,10 +2332,10 @@
         <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>25</v>
@@ -2341,10 +2347,10 @@
         <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
@@ -2356,10 +2362,10 @@
         <v>114</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
@@ -2381,22 +2387,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1">
         <v>2342159</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2404,22 +2410,22 @@
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2">
         <v>2342159</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/劉櫂豪_2012-04-30_財產申報表_tmpba991.xlsx
+++ b/legislator/property/output/normal/劉櫂豪_2012-04-30_財產申報表_tmpba991.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="107">
   <si>
     <t>name</t>
   </si>
@@ -137,49 +137,58 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行台東分行</t>
   </si>
   <si>
+    <t>臺灣新光商業銀行七賢分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行三民分行</t>
+  </si>
+  <si>
+    <t>高雄博愛路郵局(第54支局）</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行鼓山分行</t>
+  </si>
+  <si>
+    <t>匯臂（台灣）商業銀行高雄分行</t>
+  </si>
+  <si>
     <t>綜合存款</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>定期儲蓄存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣新光商業銀行七賢分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行三民分行</t>
-  </si>
-  <si>
-    <t>高雄博愛路郵局(第54支局）</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行鼓山分行</t>
-  </si>
-  <si>
-    <t>匯臂（台灣）商業銀行高雄分行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>定期儲蓄存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
     <t>劉〇忻</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>中環股份有限公司</t>
@@ -1074,13 +1083,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1091,206 +1100,400 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>1080379</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>1080379</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1762</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>76759</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1762</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>34561</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1762</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>272988</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1762</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+        <v>52</v>
+      </c>
+      <c r="F6" s="2">
         <v>218778</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1762</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F7" s="2">
-        <v>5387.41</v>
-      </c>
-      <c r="G7" s="2">
         <v>156234.89</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1762</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1762</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2">
-        <v>1514.09</v>
-      </c>
-      <c r="G9" s="2">
         <v>43908.61</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1762</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="2">
-        <v>3277.04</v>
-      </c>
-      <c r="G10" s="2">
         <v>95034.16</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1762</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="2">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1314,13 +1517,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1352,7 +1555,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1364,13 +1567,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2">
         <v>30000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1396,7 +1599,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1408,13 +1611,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2">
         <v>640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1440,7 +1643,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1452,13 +1655,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2">
         <v>880</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1484,7 +1687,7 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1496,13 +1699,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2">
         <v>15390</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
@@ -1528,7 +1731,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1540,13 +1743,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2">
         <v>18390</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
@@ -1572,10 +1775,10 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2">
         <v>20</v>
@@ -1584,13 +1787,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2">
         <v>200</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>23</v>
@@ -1616,7 +1819,7 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -1628,13 +1831,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2">
         <v>16660</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
@@ -1660,7 +1863,7 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -1672,13 +1875,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2">
         <v>15050</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>23</v>
@@ -1704,10 +1907,10 @@
         <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2">
         <v>2675</v>
@@ -1716,13 +1919,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10" s="2">
         <v>26750</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>23</v>
@@ -1748,10 +1951,10 @@
         <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2">
         <v>910</v>
@@ -1760,13 +1963,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2">
         <v>9100</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>23</v>
@@ -1802,13 +2005,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1">
         <v>134.41</v>
@@ -1817,7 +2020,7 @@
         <v>19.82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1">
         <v>77256.18</v>
@@ -1828,13 +2031,13 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2">
         <v>134.41</v>
@@ -1843,7 +2046,7 @@
         <v>19.82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2">
         <v>77256.18</v>
@@ -1854,13 +2057,13 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2">
         <v>200.41</v>
@@ -1869,7 +2072,7 @@
         <v>20.38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2">
         <v>118446.32</v>
@@ -1880,13 +2083,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2">
         <v>325.896</v>
@@ -1895,7 +2098,7 @@
         <v>14.74</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2">
         <v>139307.5</v>
@@ -1906,13 +2109,13 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2">
         <v>88.68</v>
@@ -1921,7 +2124,7 @@
         <v>20.38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2">
         <v>52411.65</v>
@@ -1932,13 +2135,13 @@
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2">
         <v>501.398</v>
@@ -1947,7 +2150,7 @@
         <v>17.24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2">
         <v>250678.94</v>
@@ -1958,13 +2161,13 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2">
         <v>425.25</v>
@@ -1973,7 +2176,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H7" s="2">
         <v>525268.8</v>
@@ -1984,13 +2187,13 @@
         <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2">
         <v>214.13</v>
@@ -1999,7 +2202,7 @@
         <v>11.72</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H8" s="2">
         <v>96870.7</v>
@@ -2010,13 +2213,13 @@
         <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2">
         <v>153.517</v>
@@ -2025,7 +2228,7 @@
         <v>21.68</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H9" s="2">
         <v>128470.39</v>
@@ -2036,13 +2239,13 @@
         <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2">
         <v>82.949</v>
@@ -2051,7 +2254,7 @@
         <v>14.74</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H10" s="2">
         <v>35457.38</v>
@@ -2062,13 +2265,13 @@
         <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2">
         <v>1319.46</v>
@@ -2077,7 +2280,7 @@
         <v>14.74</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H11" s="2">
         <v>564016.37</v>
@@ -2088,13 +2291,13 @@
         <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2">
         <v>89.72</v>
@@ -2103,7 +2306,7 @@
         <v>18.27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H12" s="2">
         <v>47536.35</v>
@@ -2114,13 +2317,13 @@
         <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E13" s="2">
         <v>11.97</v>
@@ -2129,7 +2332,7 @@
         <v>102.45</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H13" s="2">
         <v>35563.47</v>
@@ -2140,13 +2343,13 @@
         <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2">
         <v>33.6</v>
@@ -2155,7 +2358,7 @@
         <v>35.55</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H14" s="2">
         <v>34639.92</v>
@@ -2176,16 +2379,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2193,16 +2396,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2210,10 +2413,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -2225,10 +2428,10 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
@@ -2240,10 +2443,10 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
@@ -2255,10 +2458,10 @@
         <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -2270,10 +2473,10 @@
         <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -2285,10 +2488,10 @@
         <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
@@ -2300,10 +2503,10 @@
         <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
@@ -2315,16 +2518,16 @@
         <v>111</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2332,10 +2535,10 @@
         <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>25</v>
@@ -2347,10 +2550,10 @@
         <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
@@ -2362,10 +2565,10 @@
         <v>114</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
@@ -2387,22 +2590,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1">
         <v>2342159</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2410,22 +2613,22 @@
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2">
         <v>2342159</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/劉櫂豪_2012-04-30_財產申報表_tmpba991.xlsx
+++ b/legislator/property/output/normal/劉櫂豪_2012-04-30_財產申報表_tmpba991.xlsx
@@ -13,7 +13,7 @@
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
     <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
-    <sheet name="具有相當價值之財產" sheetId="7" r:id="rId7"/>
+    <sheet name="保險" sheetId="7" r:id="rId7"/>
     <sheet name="債務" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="105">
   <si>
     <t>name</t>
   </si>
@@ -224,45 +224,48 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>富達太平洋基金</t>
   </si>
   <si>
+    <t>富達新興市場基金</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓世界基金</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓成長基金</t>
+  </si>
+  <si>
+    <t>貝萊德環球資產配置基金A2</t>
+  </si>
+  <si>
+    <t>富達歐洲進取基金</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓東歐基金</t>
+  </si>
+  <si>
+    <t>坦伯頓世界基金</t>
+  </si>
+  <si>
+    <t>貝萊德歐洲特別時機基金</t>
+  </si>
+  <si>
+    <t>聯博新興市場成長基金</t>
+  </si>
+  <si>
+    <t>林子值</t>
+  </si>
+  <si>
+    <t>劉◦忻</t>
+  </si>
+  <si>
     <t>中國信託商業銀行</t>
   </si>
   <si>
-    <t>富達新興市場基金</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓世界基金</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓成長基金</t>
-  </si>
-  <si>
-    <t>貝萊德環球資產配置基金A2</t>
-  </si>
-  <si>
-    <t>富達歐洲進取基金</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓東歐基金</t>
-  </si>
-  <si>
-    <t>坦伯頓世界基金</t>
-  </si>
-  <si>
-    <t>貝萊德歐洲特別時機基金</t>
-  </si>
-  <si>
-    <t>聯博新興市場成長基金</t>
-  </si>
-  <si>
-    <t>林子值</t>
-  </si>
-  <si>
-    <t>劉◦忻</t>
-  </si>
-  <si>
     <t>華南商業銀行</t>
   </si>
   <si>
@@ -275,16 +278,10 @@
     <t>歐元</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
+    <t>fund</t>
+  </si>
+  <si>
+    <t>新鍾情終身壽險</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -294,9 +291,6 @@
   </si>
   <si>
     <t>國際紐約人壽</t>
-  </si>
-  <si>
-    <t>新鍾情終身壽險</t>
   </si>
   <si>
     <t>鍾意終身</t>
@@ -1997,47 +1991,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="1">
-        <v>134.41</v>
-      </c>
-      <c r="F1" s="1">
-        <v>19.82</v>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1">
-        <v>77256.18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2">
         <v>134.41</v>
@@ -2051,8 +2066,29 @@
       <c r="H2" s="2">
         <v>77256.18</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1762</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>82</v>
       </c>
@@ -2063,7 +2099,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
         <v>200.41</v>
@@ -2077,8 +2113,29 @@
       <c r="H3" s="2">
         <v>118446.32</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1762</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>83</v>
       </c>
@@ -2089,7 +2146,7 @@
         <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2">
         <v>325.896</v>
@@ -2103,8 +2160,29 @@
       <c r="H4" s="2">
         <v>139307.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1762</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>84</v>
       </c>
@@ -2115,7 +2193,7 @@
         <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2">
         <v>88.68</v>
@@ -2129,8 +2207,29 @@
       <c r="H5" s="2">
         <v>52411.65</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1762</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>85</v>
       </c>
@@ -2141,7 +2240,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2">
         <v>501.398</v>
@@ -2155,8 +2254,29 @@
       <c r="H6" s="2">
         <v>250678.94</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1762</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>86</v>
       </c>
@@ -2167,7 +2287,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2">
         <v>425.25</v>
@@ -2176,13 +2296,34 @@
         <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" s="2">
         <v>525268.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1762</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>87</v>
       </c>
@@ -2193,7 +2334,7 @@
         <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2">
         <v>214.13</v>
@@ -2202,13 +2343,34 @@
         <v>11.72</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H8" s="2">
         <v>96870.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1762</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>88</v>
       </c>
@@ -2219,7 +2381,7 @@
         <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2">
         <v>153.517</v>
@@ -2228,13 +2390,34 @@
         <v>21.68</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H9" s="2">
         <v>128470.39</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1762</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>89</v>
       </c>
@@ -2245,7 +2428,7 @@
         <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2">
         <v>82.949</v>
@@ -2259,8 +2442,29 @@
       <c r="H10" s="2">
         <v>35457.38</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1762</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>90</v>
       </c>
@@ -2271,7 +2475,7 @@
         <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2">
         <v>1319.46</v>
@@ -2285,8 +2489,29 @@
       <c r="H11" s="2">
         <v>564016.37</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1762</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>91</v>
       </c>
@@ -2297,7 +2522,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2">
         <v>89.72</v>
@@ -2311,8 +2536,29 @@
       <c r="H12" s="2">
         <v>47536.35</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1762</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>92</v>
       </c>
@@ -2323,7 +2569,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E13" s="2">
         <v>11.97</v>
@@ -2337,8 +2583,29 @@
       <c r="H13" s="2">
         <v>35563.47</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1762</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>93</v>
       </c>
@@ -2349,7 +2616,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E14" s="2">
         <v>33.6</v>
@@ -2362,6 +2629,27 @@
       </c>
       <c r="H14" s="2">
         <v>34639.92</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1762</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="2">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2371,7 +2659,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2379,44 +2667,40 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -2425,13 +2709,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
@@ -2440,28 +2724,28 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -2470,28 +2754,28 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
@@ -2500,80 +2784,65 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>114</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2590,22 +2859,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1">
         <v>2342159</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2613,22 +2882,22 @@
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2">
         <v>2342159</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/劉櫂豪_2012-04-30_財產申報表_tmpba991.xlsx
+++ b/legislator/property/output/normal/劉櫂豪_2012-04-30_財產申報表_tmpba991.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="109">
   <si>
     <t>name</t>
   </si>
@@ -281,18 +281,21 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>中國人壽</t>
+  </si>
+  <si>
+    <t>國際紐約人壽</t>
+  </si>
+  <si>
     <t>新鍾情終身壽險</t>
   </si>
   <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>中國人壽</t>
-  </si>
-  <si>
-    <t>國際紐約人壽</t>
-  </si>
-  <si>
     <t>鍾意終身</t>
   </si>
   <si>
@@ -323,7 +326,13 @@
     <t>增美利外幣終身壽險</t>
   </si>
   <si>
-    <t>有兩張保畢</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -336,6 +345,9 @@
   </si>
   <si>
     <t>購買房屋抵押貸款</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2659,25 +2671,45 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>104</v>
       </c>
@@ -2685,14 +2717,34 @@
         <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1762</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>105</v>
       </c>
@@ -2700,14 +2752,34 @@
         <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1762</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>106</v>
       </c>
@@ -2715,14 +2787,34 @@
         <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1762</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>107</v>
       </c>
@@ -2730,14 +2822,34 @@
         <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1762</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>108</v>
       </c>
@@ -2745,14 +2857,34 @@
         <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1762</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>109</v>
       </c>
@@ -2760,14 +2892,34 @@
         <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1762</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>110</v>
       </c>
@@ -2775,14 +2927,34 @@
         <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1762</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>111</v>
       </c>
@@ -2790,16 +2962,34 @@
         <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>101</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1762</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>112</v>
       </c>
@@ -2807,14 +2997,34 @@
         <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1762</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>113</v>
       </c>
@@ -2822,14 +3032,34 @@
         <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1762</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>114</v>
       </c>
@@ -2837,12 +3067,32 @@
         <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1762</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="2">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2851,53 +3101,95 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2342159</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2">
         <v>2342159</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1762</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
